--- a/outputs/data_dashboard/data/4dsw_app_data.xlsx
+++ b/outputs/data_dashboard/data/4dsw_app_data.xlsx
@@ -3804,7 +3804,7 @@
     <t xml:space="preserve">10.1016/j.ecresq.2022.12.009</t>
   </si>
   <si>
-    <t xml:space="preserve">https://scholarworks.montana.edu/xmlui/bitstream/handle/1/17752/thompson-school-2023.pdf?sequence=1</t>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S0885200622001387</t>
   </si>
   <si>
     <t xml:space="preserve">Fraction Free and Reduced Lunch: 

--- a/outputs/data_dashboard/data/4dsw_app_data.xlsx
+++ b/outputs/data_dashboard/data/4dsw_app_data.xlsx
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">The four-day school week: Research on extended weekends</t>
   </si>
   <si>
-    <t xml:space="preserve">https://scholarworks.montana.edu/xmlui/bitstream/handle/1/10115/AmysR1216.pdf?sequ</t>
+    <t xml:space="preserve">https://www.proquest.com/openview/de319bec3de80be3c5c1721f151ab5ad/1?pq-origsite=gscholar&amp;cbl=18750</t>
   </si>
   <si>
     <t xml:space="preserve">Student Instruction</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">A case study of the four-day school week: An alternative schedule for public schools</t>
   </si>
   <si>
-    <t xml:space="preserve">https://d1wqtxts1xzle7.cloudfront.net/76581555/leiseth-dissertation-casestudy-libre.pdf?1639702028=&amp;response-content-disposition=inline%3B+filename%3DA_Case_Study_of_the_Four_Day_School_Week.pdf&amp;Expires=1696263512&amp;Signature=hGKySDEAGKOsIIaZyv~jGegipmWfQe51vkNtqAkEijc5Le6wmZwI~pwx1w1njd076aCjiYqZhHrmNsQ7BNuU81HhI8-eGwFOb2Q-mgRsKIKx5WPwl9jk7eiWep~IVNYy3lPFNouf59MoXseumgqx~sq2ylP7~w5S3KhRlDwtiPKnld4578sXnY2g9CK09fJZ6h6GWgUOgfRlgp~uDyUutmpN-U-lA3iJwvEuwdWMWsjqj~PnGIMxWsWyhLdINow2XDkIpemDpxgxOpBjZPnFH1qk0w9rhYYmk4vNEpwB6yQSW-4WjHmnUYXnG806sb1SSLvTwt-NkHPbgbGBmma0rA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+    <t xml:space="preserve">https://www.proquest.com/openview/18eeda1fe30c14c8118424cc30e6e2b8/1?pq-origsite=gscholar&amp;cbl=18750</t>
   </si>
   <si>
     <t xml:space="preserve">Barbara Leiseth</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.1007/s10588-015-9198-5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://d1wqtxts1xzle7.cloudfront.net/79387510/s10588-015-9198-5-libre.pdf?1642897275=&amp;response-content-disposition=inline%3B+filename%3DWeekends_as_social_distancing_and_their.pdf&amp;Expires=1696264685&amp;Signature=Wis-HexzH2HsF3YhODAoEtEATzrcgDXLfIJBgaILl4Zdnc5ptuUGQdY14kCFNnRHoovqef9eETekI-ZKJzanwze~AexOB80KsUfVam2zSVC39YrDAuMqEX4wRjcdtBMFmSrSDhkOnLBAo6OI3a3TOhh67RgJPWhASK7q8hVEj1VguNu-NCsHh4oWszUoOz-MuuXkHwJglQD32IGqcuXiHtAHGtEUnuIy1zb8LqtumL05vruqGSCVwmKeZneUd97KgVUvggthIMHG1CsD2UXIByFhyF0DtchiWRwRTQPjANDadwJhYjKuoCaZRusZUYdHiHN~1HF6-a1EfSwR3MYwpw__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s10588-015-9198-5</t>
   </si>
   <si>
     <t xml:space="preserve">Philip C. Cooley</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">A comparative study of transporation costs for a four-day school week and a five day school week for Dougherty County schools</t>
   </si>
   <si>
-    <t xml:space="preserve">https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+comparative+study+of+transporation+costs+for+a+four-day+school+week+and+a+five+day+school+week+for+Dougherty+County+schools&amp;issn=&amp;date=1984-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Palmer%2C+John+D.%2C+Jr.&amp;isbn=978-1-369-36344-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/</t>
+    <t xml:space="preserve">https://troyuniversity.on.worldcat.org/search/detail/719377305?queryString=ti%3A%28%E2%80%A2%09A%20comparative%20study%20of%20transportation%20costs%20for%20a%20four-day%20school%20week%20and%20a%20five%20day%20school%20week%20for%20Dougherty%20County%20schools%29&amp;databaseList=217%2C283%2C285%2C638&amp;origPageViewName=pages%2Fadvanced-search-page&amp;clusterResults=&amp;groupVariantRecords=&amp;expandSearch=true&amp;translateSearch=false&amp;queryTranslationLanguage=&amp;lang=en&amp;scope=wz%3A475</t>
   </si>
   <si>
     <t xml:space="preserve">John D Palmer Jr</t>
@@ -17112,13 +17112,13 @@
         <v>49</v>
       </c>
       <c r="T101" t="s">
-        <v>49</v>
+        <v>1173</v>
       </c>
       <c r="U101" t="s">
         <v>49</v>
       </c>
       <c r="V101" t="s">
-        <v>1173</v>
+        <v>49</v>
       </c>
       <c r="W101" t="s">
         <v>49</v>

--- a/outputs/data_dashboard/data/4dsw_app_data.xlsx
+++ b/outputs/data_dashboard/data/4dsw_app_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1221">
   <si>
     <t xml:space="preserve">refid</t>
   </si>
@@ -773,6 +773,9 @@
     <t xml:space="preserve">https://scholarship.claremont.edu/cgi/viewcontent.cgi?article=2312&amp;context=scripps_theses</t>
   </si>
   <si>
+    <t xml:space="preserve">Rural; Suburban; Urban</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attendance; Crime; Incidents</t>
   </si>
   <si>
@@ -809,9 +812,6 @@
     <t xml:space="preserve">https://shareok.org/bitstream/handle/11244/319735/2019_Byerly_Channa_Dissertation.pdf?sequence=4</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural; Suburban; Urban</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rurality</t>
   </si>
   <si>
@@ -1028,6 +1028,9 @@
     <t xml:space="preserve">https://direct.mit.edu/edfp/article/10/3/314/10233/Does-Shortening-the-School-Week-Impact-Student</t>
   </si>
   <si>
+    <t xml:space="preserve">SES</t>
+  </si>
+  <si>
     <t xml:space="preserve">4; 5</t>
   </si>
   <si>
@@ -3227,178 +3230,451 @@
     <t xml:space="preserve">https://scholarworks.uark.edu/cgi/viewcontent.cgi?article=1165&amp;context=oepbrief</t>
   </si>
   <si>
+    <t xml:space="preserve">Acceptability; Feasibility; Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Care; Extracurriculars (clubs, sports); Student Instruction; Teacher In-Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploration of Motivations for Adopting a Four-Day School Week or Year Round Calendars: Evidence from Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKenzie, Sarah C, McGee, Josh B, Barnes, Kate (2023) Exploration of Motivations for Adopting a Four-Day School Week or Year Round Calendars: Evidence from Arkansas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScholarWorks@UARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://edre.uark.edu/people/andrew-camp.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uark.app.box.com/s/dbgni4a77k9zx875jdr9dwm7952fk3pu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher Retention and Quality in the Four-Day School Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp, Andrew  Teacher Retention and Quality in the Four-Day School Week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy Research in Missouri Education Center at Saint Louis University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://annenberg.brown.edu/people/andrew-camp-0#:~:text=Andrew%20Camp%20is%20a%20Senior%20Research%20Associate%20at,provide%20timely%20evidence%20on%20teacher%20labor%20market%20conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.primecenter.org/education-reports-database/teacher-retention-4dsws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher Retention and the Four-Day School Week in Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew M Camp, Taylor Wilson, Yujia Liu, J Cameron Anglum, Anita Manion, &amp; Tuan Nguyen (2024) Teacher Retention and the Four-Day School Week in Missouri PRiME Center | St Louis University.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Ainsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdWorkingPaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://education.uci.edu/meet_cohort_2022.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://edworkingpapers.com/ai24-1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rurality; Gifted; Race/Ethnicity; SES; Special Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less is More? The Causal Effect of Four-Day School Weeks on Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainsworth, Aaron J, Penner, Emily K, Liu, Yujia (2024) Less is More? The Causal Effect of Four-Day School Weeks on Employee, 10.26300/QGTJ-MJ51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Analysis of Longitudinal Data in Education Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.emily-morton.com/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://caldercenter.org/sites/default/files/2024-11/CALDER%20WP%20307-0924.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance; Retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian; Black or African American; Hispanic, Latino, or Spanish; Native Hawaiian/Other Pacific Islander; White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of Four-Day School Weeks on Teacher Recruitment and Retention and Student  Attendance: Evidence from Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Morton &amp; Emma Dewil (2024) Impacts of Four-Day School Weeks on Teacher Recruitment and Retention and Student Attendance: Evidence from Colorado CALDER Working Paper No 307-0924.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Shuls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show-Me Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://showmeinstitute.org/author/james-v-shuls/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://showmeinstitute.org/wp-content/uploads/2023/12/20231201-Survey-Shuls_Frank.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five for me: A survey of Missourians regarding the four-day school week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James V Shuls (2023) Five for me: A survey of Missourians regarding the four-day school week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avery Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://showmeinstitute.org/author/afrank/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://showmeinstitute.org/wp-content/uploads/2024/06/20240506-Descriptive-Analysis-4dsw_Frank-Shuls.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achievement; Attainment; Retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness; Priority; Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longer days and fewer total hours: examining the four-day school week in Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avery Frank and James V Shuls (2024) Longer days and fewer total hours: examining the four-day school week in Missouri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versemann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacey Versemann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Illinois University Carbondale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.perryville.k12.mo.us/o/pcms/page/meet-mrs-versemann-assistantprincipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://opensiuc.lib.siu.edu/gs_caps/16/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness; Feasibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3; 4; 5; 6; 7; 8; 9; 10; 11; 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-2019; 2021-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Impact of a Four-Day and Five-Day School Week on Student Achievement in Reading and Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versemann, Stacey (2024) The Impact of a Four-Day and Five-Day School Week on Student Achievement in Reading and Math.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neng Priyanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Houston Education Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0000-0003-0368-2484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uh.edu/education/research/institutes-centers/erc/reports-publications/4dsw-working-paper---final.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feasibility; Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploration of Motivations for Adopting a Four-Day School Week or Year Round Calendars: Evidence from Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McKenzie, Sarah C, McGee, Josh B, Barnes, Kate (2023) Exploration of Motivations for Adopting a Four-Day School Week or Year Round Calendars: Evidence from Arkansas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Camp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScholarWorks@UARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://edre.uark.edu/people/andrew-camp.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://uark.app.box.com/s/dbgni4a77k9zx875jdr9dwm7952fk3pu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher Retention and Quality in the Four-Day School Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camp, Andrew  Teacher Retention and Quality in the Four-Day School Week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy Research in Missouri Education Center at Saint Louis University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://annenberg.brown.edu/people/andrew-camp-0#:~:text=Andrew%20Camp%20is%20a%20Senior%20Research%20Associate%20at,provide%20timely%20evidence%20on%20teacher%20labor%20market%20conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.primecenter.org/education-reports-database/teacher-retention-4dsws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher Retention and the Four-Day School Week in Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew M Camp, Taylor Wilson, Yujia Liu, J Cameron Anglum, Anita Manion, &amp; Tuan Nguyen (2024) Teacher Retention and the Four-Day School Week in Missouri PRiME Center | St Louis University.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainsworth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaron Ainsworth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EdWorkingPaper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://education.uci.edu/meet_cohort_2022.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://edworkingpapers.com/ai24-1035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rurality; Gifted; Race/Ethnicity; SES; Special Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less is More? The Causal Effect of Four-Day School Weeks on Employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainsworth, Aaron J, Penner, Emily K, Liu, Yujia (2024) Less is More? The Causal Effect of Four-Day School Weeks on Employee, 10.26300/QGTJ-MJ51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center for Analysis of Longitudinal Data in Education Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emily-morton.com/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://caldercenter.org/sites/default/files/2024-11/CALDER%20WP%20307-0924.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attendance; Retention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian; Black or African American; Hispanic, Latino, or Spanish; Native Hawaiian/Other Pacific Islander; White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacts of Four-Day School Weeks on Teacher Recruitment and Retention and Student  Attendance: Evidence from Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emily Morton &amp; Emma Dewil (2024) Impacts of Four-Day School Weeks on Teacher Recruitment and Retention and Student Attendance: Evidence from Colorado CALDER Working Paper No 307-0924.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Shuls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show-Me Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://showmeinstitute.org/author/james-v-shuls/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://showmeinstitute.org/wp-content/uploads/2023/12/20231201-Survey-Shuls_Frank.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Five for me: A survey of Missourians regarding the four-day school week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James V Shuls (2023) Five for me: A survey of Missourians regarding the four-day school week.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avery Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://showmeinstitute.org/author/afrank/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://showmeinstitute.org/wp-content/uploads/2024/06/20240506-Descriptive-Analysis-4dsw_Frank-Shuls.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achievement; Attainment; Retention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectiveness; Priority; Resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longer days and fewer total hours: examining the four-day school week in Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avery Frank and James V Shuls (2024) Longer days and fewer total hours: examining the four-day school week in Missouri.</t>
+    <t xml:space="preserve">2017-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Care; Extracurriculars (clubs, sports); Nothing (shut down school); Student Instruction; Teacher In-Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Four-Day School Week Adoption in Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanti, Neng, Miraj, Fiza, Templeton, Toni  Exploring Four-Day School Week Adoption in Texas University of Houston Education Research Center Working Paper #102-24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kate Barnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRiME Center, St. Louis University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kate-barnes.com/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.primecenter.org/education-reports-database/attendance-4dsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR; MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOUR-DAY SCHOOL WEEK ACROSS STATE LINES: INSIGHTS ON ATTENDANCE FROM MISSOURI AND ARKSANSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnes, Kate, McKenzie, Sarah (2025) FOUR-DAY SCHOOL WEEK ACROSS STATE LINES: INSIGHTS ON ATTENDANCE FROM MISSOURI AND ARKSANSAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Wallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ford.quinlanisd.net/apps/pages/index.jsp?uREC_ID=617332&amp;type=u&amp;pREC_ID=1723652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ttu-ir.tdl.org/items/e254b788-67a1-4ab0-bf50-32b46fc61624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achievement; Attainment; Incidents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019; 2021-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching in Teams for Increased Student Academic Engagement at a Rural High School on a Four-Day Instructional Week: A Design Development Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallen, Jason T (2024) Teaching in Teams for Increased Student Academic Engagement at a Rural High School on a Four-Day Instructional Week: A Design Development Study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafiuddin Najam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sites.google.com/view/najamr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://appam.confex.com/appam/2024/meetingapp.cgi/Paper/52073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of the Four-Day School Week on Juvenile Crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najam, Rafiuddin, Thompson, Paul (2024) Impacts of the Four-Day School Week on Juvenile Crime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://andrewmcamp.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://appam.confex.com/appam/2024/meetingapp.cgi/Paper/53056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher Quality and Turnover in the Four Day School Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp, Andrew (2024) Teacher Quality and Turnover in the Four Day School Week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon S. Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRiME Center St. Louis University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://education.missouristate.edu/SELPS/profile-display.aspx?p=JonSTurner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.primecenter.org/education-reports-database/4dsw-case-study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suburban; Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE IMPACT OF A 4-DAY SCHOOL WEEK ON TEACHER RECRUITMENT: A CASE STUDY OF A LARGE URBAN SCHOOL DISTRICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turner, Jon S (2024) THE IMPACT OF A 4-DAY SCHOOL WEEK ON TEACHER RECRUITMENT: A CASE STUDY OF A LARGE URBAN SCHOOL DISTRICT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blalock Jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugene Elden Blalock Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nchcityschools.org/apps/pages/index.jsp?uREC_ID=197793&amp;type=d&amp;pREC_ID=424508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rave.ohiolink.edu/etdc/view?acc_num=miami172000888174614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teachers' Perception of How A 4-Day School Week Impacts Employee Attendance, Recruitment and Retention, and Wellness/Work-Life Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blalock Jr Jr, Eugene Elden (2024) Teachers' Perception of How A 4-Day School Week Impacts Employee Attendance, Recruitment and Retention, and Wellness/Work-Life Balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS Insitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sas.com/en_us/home.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evaas.sas.com/support/assets/EVAAS-MO-4DaySchoolWeekBrief.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of four-day school week on growth and achievement in Missouri [Research Brief]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS Institute (2024) Impact of four-day school week on growth and achievement in Missouri [Research Brief].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine M. Bowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nctq.org/people/katherine-bowser/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://edworkingpapers.com/ai25-1208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The four day gamble: The quasi-experimental effects of four-day school week adoption on teacher, principal, and paraprofessional staff turnover and district financial outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowser, K M (2025) The four day gamble: The quasi-experimental effects of four-day school week adoption on teacher, principal, and paraprofessional staff turnover and district financial outcomes EdWorkingPaper No 25 -1208.</t>
   </si>
 </sst>
 </file>
@@ -5185,10 +5461,10 @@
         <v>252</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N21" t="s">
         <v>30</v>
@@ -5197,7 +5473,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q21" t="s">
         <v>173</v>
@@ -5206,30 +5482,30 @@
         <v>126</v>
       </c>
       <c r="S21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T21" t="s">
         <v>30</v>
       </c>
       <c r="U21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
         <v>146</v>
@@ -5238,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -5247,16 +5523,16 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J22" t="s">
         <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s">
         <v>233</v>
@@ -5611,7 +5887,7 @@
         <v>317</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s">
         <v>30</v>
@@ -5756,16 +6032,16 @@
         <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="P29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q29" t="s">
         <v>109</v>
@@ -5774,7 +6050,7 @@
         <v>126</v>
       </c>
       <c r="S29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T29" t="s">
         <v>30</v>
@@ -5783,30 +6059,30 @@
         <v>309</v>
       </c>
       <c r="V29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E30" t="s">
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -5821,7 +6097,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L30" t="s">
         <v>65</v>
@@ -5842,33 +6118,33 @@
         <v>30</v>
       </c>
       <c r="R30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S30" t="s">
         <v>215</v>
       </c>
       <c r="T30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U30" t="s">
         <v>128</v>
       </c>
       <c r="V30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D31" t="s">
         <v>230</v>
@@ -5877,7 +6153,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -5892,7 +6168,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L31" t="s">
         <v>65</v>
@@ -5919,27 +6195,27 @@
         <v>30</v>
       </c>
       <c r="T31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U31" t="s">
         <v>30</v>
       </c>
       <c r="V31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D32" t="s">
         <v>181</v>
@@ -5963,7 +6239,7 @@
         <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L32" t="s">
         <v>65</v>
@@ -5987,39 +6263,39 @@
         <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U32" t="s">
         <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -6034,7 +6310,7 @@
         <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L33" t="s">
         <v>65</v>
@@ -6055,10 +6331,10 @@
         <v>52</v>
       </c>
       <c r="R33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="S33" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T33" t="s">
         <v>36</v>
@@ -6067,21 +6343,21 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W33" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D34" t="s">
         <v>117</v>
@@ -6090,7 +6366,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -6105,13 +6381,13 @@
         <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L34" t="s">
         <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N34" t="s">
         <v>30</v>
@@ -6138,21 +6414,21 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D35" t="s">
         <v>230</v>
@@ -6161,7 +6437,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -6176,7 +6452,7 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L35" t="s">
         <v>65</v>
@@ -6200,7 +6476,7 @@
         <v>98</v>
       </c>
       <c r="S35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T35" t="s">
         <v>30</v>
@@ -6209,21 +6485,21 @@
         <v>309</v>
       </c>
       <c r="V35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="W35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
         <v>146</v>
@@ -6232,7 +6508,7 @@
         <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -6244,10 +6520,10 @@
         <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L36" t="s">
         <v>65</v>
@@ -6271,7 +6547,7 @@
         <v>53</v>
       </c>
       <c r="S36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T36" t="s">
         <v>30</v>
@@ -6280,21 +6556,21 @@
         <v>30</v>
       </c>
       <c r="V36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D37" t="s">
         <v>117</v>
@@ -6303,7 +6579,7 @@
         <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -6315,10 +6591,10 @@
         <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L37" t="s">
         <v>65</v>
@@ -6351,21 +6627,21 @@
         <v>30</v>
       </c>
       <c r="V37" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="W37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
         <v>181</v>
@@ -6374,7 +6650,7 @@
         <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -6383,13 +6659,13 @@
         <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L38" t="s">
         <v>30</v>
@@ -6404,16 +6680,16 @@
         <v>95</v>
       </c>
       <c r="P38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q38" t="s">
         <v>173</v>
       </c>
       <c r="R38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S38" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T38" t="s">
         <v>30</v>
@@ -6422,21 +6698,21 @@
         <v>289</v>
       </c>
       <c r="V38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D39" t="s">
         <v>212</v>
@@ -6445,7 +6721,7 @@
         <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -6457,19 +6733,19 @@
         <v>147</v>
       </c>
       <c r="J39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K39" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L39" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M39" t="s">
         <v>185</v>
       </c>
       <c r="N39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O39" t="s">
         <v>187</v>
@@ -6481,10 +6757,10 @@
         <v>52</v>
       </c>
       <c r="R39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S39" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
@@ -6493,21 +6769,21 @@
         <v>128</v>
       </c>
       <c r="V39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
         <v>230</v>
@@ -6528,13 +6804,13 @@
         <v>120</v>
       </c>
       <c r="J40" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L40" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s">
         <v>66</v>
@@ -6546,16 +6822,16 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q40" t="s">
         <v>97</v>
       </c>
       <c r="R40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="T40" t="s">
         <v>30</v>
@@ -6564,21 +6840,21 @@
         <v>289</v>
       </c>
       <c r="V40" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B41" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C41" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D41" t="s">
         <v>230</v>
@@ -6587,7 +6863,7 @@
         <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -6599,13 +6875,13 @@
         <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K41" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L41" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M41" t="s">
         <v>49</v>
@@ -6623,10 +6899,10 @@
         <v>125</v>
       </c>
       <c r="R41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T41" t="s">
         <v>30</v>
@@ -6635,21 +6911,21 @@
         <v>289</v>
       </c>
       <c r="V41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W41" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D42" t="s">
         <v>181</v>
@@ -6670,13 +6946,13 @@
         <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L42" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s">
         <v>30</v>
@@ -6685,7 +6961,7 @@
         <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P42" t="s">
         <v>51</v>
@@ -6694,33 +6970,33 @@
         <v>52</v>
       </c>
       <c r="R42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="U42" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V42" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D43" t="s">
         <v>181</v>
@@ -6729,7 +7005,7 @@
         <v>118</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -6741,13 +7017,13 @@
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L43" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M43" t="s">
         <v>30</v>
@@ -6765,10 +7041,10 @@
         <v>52</v>
       </c>
       <c r="R43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T43" t="s">
         <v>30</v>
@@ -6777,21 +7053,21 @@
         <v>128</v>
       </c>
       <c r="V43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="W43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
         <v>212</v>
@@ -6800,7 +7076,7 @@
         <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -6812,57 +7088,57 @@
         <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L44" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s">
         <v>66</v>
       </c>
       <c r="N44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O44" t="s">
         <v>267</v>
       </c>
       <c r="P44" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q44" t="s">
         <v>97</v>
       </c>
       <c r="R44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T44" t="s">
         <v>30</v>
       </c>
       <c r="U44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V44" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W44" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -6886,7 +7162,7 @@
         <v>30</v>
       </c>
       <c r="K45" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L45" t="s">
         <v>65</v>
@@ -6901,7 +7177,7 @@
         <v>95</v>
       </c>
       <c r="P45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q45" t="s">
         <v>125</v>
@@ -6910,7 +7186,7 @@
         <v>53</v>
       </c>
       <c r="S45" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T45" t="s">
         <v>30</v>
@@ -6919,30 +7195,30 @@
         <v>111</v>
       </c>
       <c r="V45" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="W45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C46" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E46" t="s">
         <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
@@ -6954,13 +7230,13 @@
         <v>63</v>
       </c>
       <c r="J46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K46" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L46" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s">
         <v>66</v>
@@ -6978,10 +7254,10 @@
         <v>52</v>
       </c>
       <c r="R46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S46" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T46" t="s">
         <v>30</v>
@@ -6990,21 +7266,21 @@
         <v>30</v>
       </c>
       <c r="V46" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W46" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B47" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C47" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
         <v>181</v>
@@ -7013,7 +7289,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -7028,7 +7304,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L47" t="s">
         <v>65</v>
@@ -7052,30 +7328,30 @@
         <v>53</v>
       </c>
       <c r="S47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U47" t="s">
         <v>30</v>
       </c>
       <c r="V47" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="W47" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B48" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
@@ -7084,7 +7360,7 @@
         <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -7096,10 +7372,10 @@
         <v>147</v>
       </c>
       <c r="J48" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L48" t="s">
         <v>65</v>
@@ -7108,45 +7384,45 @@
         <v>66</v>
       </c>
       <c r="N48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O48" t="s">
         <v>187</v>
       </c>
       <c r="P48" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q48" t="s">
         <v>125</v>
       </c>
       <c r="R48" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T48" t="s">
         <v>30</v>
       </c>
       <c r="U48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V48" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C49" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D49" t="s">
         <v>212</v>
@@ -7155,7 +7431,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G49" t="s">
         <v>250</v>
@@ -7164,19 +7440,19 @@
         <v>183</v>
       </c>
       <c r="I49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J49" t="s">
         <v>30</v>
       </c>
       <c r="K49" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L49" t="s">
         <v>65</v>
       </c>
       <c r="M49" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N49" t="s">
         <v>266</v>
@@ -7185,39 +7461,39 @@
         <v>187</v>
       </c>
       <c r="P49" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q49" t="s">
         <v>173</v>
       </c>
       <c r="R49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S49" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T49" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="U49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V49" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="W49" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D50" t="s">
         <v>212</v>
@@ -7226,13 +7502,13 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G50" t="s">
         <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I50" t="s">
         <v>30</v>
@@ -7241,10 +7517,10 @@
         <v>30</v>
       </c>
       <c r="K50" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M50" t="s">
         <v>30</v>
@@ -7274,21 +7550,21 @@
         <v>30</v>
       </c>
       <c r="V50" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W50" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B51" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C51" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D51" t="s">
         <v>146</v>
@@ -7297,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -7312,7 +7588,7 @@
         <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L51" t="s">
         <v>30</v>
@@ -7327,7 +7603,7 @@
         <v>197</v>
       </c>
       <c r="P51" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q51" t="s">
         <v>97</v>
@@ -7336,7 +7612,7 @@
         <v>53</v>
       </c>
       <c r="S51" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T51" t="s">
         <v>243</v>
@@ -7345,30 +7621,30 @@
         <v>30</v>
       </c>
       <c r="V51" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W51" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B52" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C52" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D52" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E52" t="s">
         <v>118</v>
       </c>
       <c r="F52" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -7383,7 +7659,7 @@
         <v>30</v>
       </c>
       <c r="K52" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L52" t="s">
         <v>65</v>
@@ -7407,7 +7683,7 @@
         <v>126</v>
       </c>
       <c r="S52" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T52" t="s">
         <v>140</v>
@@ -7416,21 +7692,21 @@
         <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="W52" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B53" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C53" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D53" t="s">
         <v>117</v>
@@ -7439,7 +7715,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -7454,7 +7730,7 @@
         <v>30</v>
       </c>
       <c r="K53" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L53" t="s">
         <v>65</v>
@@ -7466,7 +7742,7 @@
         <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P53" t="s">
         <v>51</v>
@@ -7478,7 +7754,7 @@
         <v>174</v>
       </c>
       <c r="S53" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T53" t="s">
         <v>243</v>
@@ -7487,30 +7763,30 @@
         <v>30</v>
       </c>
       <c r="V53" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="W53" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B54" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C54" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D54" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -7525,10 +7801,10 @@
         <v>30</v>
       </c>
       <c r="K54" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L54" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M54" t="s">
         <v>214</v>
@@ -7537,7 +7813,7 @@
         <v>137</v>
       </c>
       <c r="O54" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P54" t="s">
         <v>51</v>
@@ -7549,7 +7825,7 @@
         <v>161</v>
       </c>
       <c r="S54" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T54" t="s">
         <v>140</v>
@@ -7558,21 +7834,21 @@
         <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="W54" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B55" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D55" t="s">
         <v>181</v>
@@ -7581,7 +7857,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -7596,13 +7872,13 @@
         <v>30</v>
       </c>
       <c r="K55" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L55" t="s">
         <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N55" t="s">
         <v>30</v>
@@ -7620,39 +7896,39 @@
         <v>53</v>
       </c>
       <c r="S55" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T55" t="s">
         <v>30</v>
       </c>
       <c r="U55" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V55" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="W55" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B56" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C56" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D56" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -7667,7 +7943,7 @@
         <v>30</v>
       </c>
       <c r="K56" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L56" t="s">
         <v>65</v>
@@ -7688,42 +7964,42 @@
         <v>52</v>
       </c>
       <c r="R56" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S56" t="s">
         <v>203</v>
       </c>
       <c r="T56" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U56" t="s">
         <v>30</v>
       </c>
       <c r="V56" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="W56" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B57" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C57" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D57" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -7738,7 +8014,7 @@
         <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L57" t="s">
         <v>65</v>
@@ -7753,7 +8029,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q57" t="s">
         <v>173</v>
@@ -7762,7 +8038,7 @@
         <v>126</v>
       </c>
       <c r="S57" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T57" t="s">
         <v>243</v>
@@ -7771,30 +8047,30 @@
         <v>30</v>
       </c>
       <c r="V57" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="W57" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B58" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C58" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -7809,7 +8085,7 @@
         <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L58" t="s">
         <v>65</v>
@@ -7824,7 +8100,7 @@
         <v>171</v>
       </c>
       <c r="P58" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q58" t="s">
         <v>97</v>
@@ -7833,7 +8109,7 @@
         <v>98</v>
       </c>
       <c r="S58" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T58" t="s">
         <v>30</v>
@@ -7842,21 +8118,21 @@
         <v>30</v>
       </c>
       <c r="V58" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W58" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B59" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C59" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D59" t="s">
         <v>92</v>
@@ -7865,7 +8141,7 @@
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -7880,7 +8156,7 @@
         <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L59" t="s">
         <v>65</v>
@@ -7892,19 +8168,19 @@
         <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P59" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q59" t="s">
         <v>52</v>
       </c>
       <c r="R59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S59" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T59" t="s">
         <v>243</v>
@@ -7913,21 +8189,21 @@
         <v>30</v>
       </c>
       <c r="V59" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W59" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B60" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C60" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D60" t="s">
         <v>146</v>
@@ -7936,7 +8212,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -7951,10 +8227,10 @@
         <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L60" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M60" t="s">
         <v>30</v>
@@ -7984,21 +8260,21 @@
         <v>30</v>
       </c>
       <c r="V60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="W60" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B61" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C61" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D61" t="s">
         <v>212</v>
@@ -8007,7 +8283,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -8022,7 +8298,7 @@
         <v>30</v>
       </c>
       <c r="K61" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L61" t="s">
         <v>30</v>
@@ -8055,30 +8331,30 @@
         <v>289</v>
       </c>
       <c r="V61" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W61" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B62" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E62" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F62" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -8090,16 +8366,16 @@
         <v>120</v>
       </c>
       <c r="J62" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K62" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L62" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M62" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N62" t="s">
         <v>137</v>
@@ -8117,39 +8393,39 @@
         <v>126</v>
       </c>
       <c r="S62" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T62" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="U62" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="V62" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W62" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B63" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C63" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D63" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -8164,16 +8440,16 @@
         <v>30</v>
       </c>
       <c r="K63" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L63" t="s">
         <v>30</v>
       </c>
       <c r="M63" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N63" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O63" t="s">
         <v>326</v>
@@ -8185,33 +8461,33 @@
         <v>52</v>
       </c>
       <c r="R63" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="S63" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="T63" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="U63" t="s">
         <v>30</v>
       </c>
       <c r="V63" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="W63" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B64" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C64" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D64" t="s">
         <v>181</v>
@@ -8220,7 +8496,7 @@
         <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -8232,13 +8508,13 @@
         <v>120</v>
       </c>
       <c r="J64" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K64" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L64" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s">
         <v>66</v>
@@ -8247,7 +8523,7 @@
         <v>30</v>
       </c>
       <c r="O64" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P64" t="s">
         <v>51</v>
@@ -8259,7 +8535,7 @@
         <v>268</v>
       </c>
       <c r="S64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T64" t="s">
         <v>30</v>
@@ -8268,24 +8544,24 @@
         <v>111</v>
       </c>
       <c r="V64" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="W64" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B65" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C65" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D65" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E65" t="s">
         <v>118</v>
@@ -8303,34 +8579,34 @@
         <v>120</v>
       </c>
       <c r="J65" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K65" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L65" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M65" t="s">
         <v>66</v>
       </c>
       <c r="N65" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O65" t="s">
         <v>187</v>
       </c>
       <c r="P65" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q65" t="s">
         <v>97</v>
       </c>
       <c r="R65" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="S65" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T65" t="s">
         <v>30</v>
@@ -8339,21 +8615,21 @@
         <v>111</v>
       </c>
       <c r="V65" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="W65" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B66" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D66" t="s">
         <v>230</v>
@@ -8362,7 +8638,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G66" t="s">
         <v>45</v>
@@ -8377,7 +8653,7 @@
         <v>30</v>
       </c>
       <c r="K66" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L66" t="s">
         <v>65</v>
@@ -8410,21 +8686,21 @@
         <v>30</v>
       </c>
       <c r="V66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="W66" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B67" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C67" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D67" t="s">
         <v>105</v>
@@ -8448,7 +8724,7 @@
         <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L67" t="s">
         <v>30</v>
@@ -8472,7 +8748,7 @@
         <v>126</v>
       </c>
       <c r="S67" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T67" t="s">
         <v>30</v>
@@ -8481,21 +8757,21 @@
         <v>30</v>
       </c>
       <c r="V67" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="W67" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B68" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C68" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D68" t="s">
         <v>117</v>
@@ -8504,22 +8780,22 @@
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G68" t="s">
         <v>62</v>
       </c>
       <c r="H68" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J68" t="s">
         <v>30</v>
       </c>
       <c r="K68" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L68" t="s">
         <v>65</v>
@@ -8543,7 +8819,7 @@
         <v>268</v>
       </c>
       <c r="S68" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T68" t="s">
         <v>30</v>
@@ -8552,21 +8828,21 @@
         <v>30</v>
       </c>
       <c r="V68" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="W68" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B69" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C69" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D69" t="s">
         <v>105</v>
@@ -8575,7 +8851,7 @@
         <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -8584,22 +8860,22 @@
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J69" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K69" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L69" t="s">
         <v>30</v>
       </c>
       <c r="M69" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N69" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O69" t="s">
         <v>187</v>
@@ -8614,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="S69" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T69" t="s">
         <v>30</v>
@@ -8623,30 +8899,30 @@
         <v>30</v>
       </c>
       <c r="V69" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="W69" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B70" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C70" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D70" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E70" t="s">
         <v>118</v>
       </c>
       <c r="F70" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -8658,16 +8934,16 @@
         <v>120</v>
       </c>
       <c r="J70" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K70" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L70" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M70" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N70" t="s">
         <v>137</v>
@@ -8685,30 +8961,30 @@
         <v>268</v>
       </c>
       <c r="S70" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="T70" t="s">
         <v>30</v>
       </c>
       <c r="U70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V70" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="W70" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B71" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C71" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D71" t="s">
         <v>117</v>
@@ -8732,7 +9008,7 @@
         <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L71" t="s">
         <v>65</v>
@@ -8765,21 +9041,21 @@
         <v>30</v>
       </c>
       <c r="V71" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="W71" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B72" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C72" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D72" t="s">
         <v>212</v>
@@ -8788,7 +9064,7 @@
         <v>118</v>
       </c>
       <c r="F72" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G72" t="s">
         <v>29</v>
@@ -8797,22 +9073,22 @@
         <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J72" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K72" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L72" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M72" t="s">
         <v>233</v>
       </c>
       <c r="N72" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O72" t="s">
         <v>187</v>
@@ -8827,7 +9103,7 @@
         <v>268</v>
       </c>
       <c r="S72" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T72" t="s">
         <v>30</v>
@@ -8836,21 +9112,21 @@
         <v>30</v>
       </c>
       <c r="V72" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="W72" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B73" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C73" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D73" t="s">
         <v>117</v>
@@ -8859,7 +9135,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -8874,7 +9150,7 @@
         <v>30</v>
       </c>
       <c r="K73" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L73" t="s">
         <v>65</v>
@@ -8907,24 +9183,24 @@
         <v>30</v>
       </c>
       <c r="V73" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="W73" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B74" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C74" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D74" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E74" t="s">
         <v>43</v>
@@ -8945,7 +9221,7 @@
         <v>30</v>
       </c>
       <c r="K74" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L74" t="s">
         <v>65</v>
@@ -8969,30 +9245,30 @@
         <v>69</v>
       </c>
       <c r="S74" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T74" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U74" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="V74" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="W74" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B75" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C75" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D75" t="s">
         <v>60</v>
@@ -9016,13 +9292,13 @@
         <v>30</v>
       </c>
       <c r="K75" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L75" t="s">
         <v>30</v>
       </c>
       <c r="M75" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N75" t="s">
         <v>30</v>
@@ -9040,7 +9316,7 @@
         <v>53</v>
       </c>
       <c r="S75" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T75" t="s">
         <v>30</v>
@@ -9049,21 +9325,21 @@
         <v>30</v>
       </c>
       <c r="V75" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="W75" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B76" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C76" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D76" t="s">
         <v>181</v>
@@ -9072,7 +9348,7 @@
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -9084,16 +9360,16 @@
         <v>120</v>
       </c>
       <c r="J76" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K76" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L76" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M76" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N76" t="s">
         <v>137</v>
@@ -9108,33 +9384,33 @@
         <v>52</v>
       </c>
       <c r="R76" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="S76" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T76" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="U76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V76" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="W76" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B77" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C77" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D77" t="s">
         <v>158</v>
@@ -9143,7 +9419,7 @@
         <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G77" t="s">
         <v>45</v>
@@ -9158,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="K77" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L77" t="s">
         <v>65</v>
@@ -9188,24 +9464,24 @@
         <v>243</v>
       </c>
       <c r="U77" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="V77" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="W77" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B78" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C78" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D78" t="s">
         <v>212</v>
@@ -9214,7 +9490,7 @@
         <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G78" t="s">
         <v>45</v>
@@ -9229,7 +9505,7 @@
         <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L78" t="s">
         <v>30</v>
@@ -9250,7 +9526,7 @@
         <v>328</v>
       </c>
       <c r="R78" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="S78" t="s">
         <v>212</v>
@@ -9262,21 +9538,21 @@
         <v>289</v>
       </c>
       <c r="V78" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="W78" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B79" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C79" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D79" t="s">
         <v>212</v>
@@ -9285,7 +9561,7 @@
         <v>118</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G79" t="s">
         <v>29</v>
@@ -9294,16 +9570,16 @@
         <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J79" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K79" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L79" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M79" t="s">
         <v>185</v>
@@ -9330,24 +9606,24 @@
         <v>30</v>
       </c>
       <c r="U79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V79" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="W79" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C80" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D80" t="s">
         <v>26</v>
@@ -9356,7 +9632,7 @@
         <v>118</v>
       </c>
       <c r="F80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -9371,10 +9647,10 @@
         <v>30</v>
       </c>
       <c r="K80" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L80" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M80" t="s">
         <v>66</v>
@@ -9386,7 +9662,7 @@
         <v>187</v>
       </c>
       <c r="P80" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q80" t="s">
         <v>52</v>
@@ -9395,39 +9671,39 @@
         <v>126</v>
       </c>
       <c r="S80" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="T80" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="U80" t="s">
         <v>30</v>
       </c>
       <c r="V80" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="W80" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B81" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C81" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G81" t="s">
         <v>45</v>
@@ -9442,7 +9718,7 @@
         <v>30</v>
       </c>
       <c r="K81" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L81" t="s">
         <v>65</v>
@@ -9451,7 +9727,7 @@
         <v>66</v>
       </c>
       <c r="N81" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O81" t="s">
         <v>187</v>
@@ -9466,7 +9742,7 @@
         <v>298</v>
       </c>
       <c r="S81" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T81" t="s">
         <v>30</v>
@@ -9475,30 +9751,30 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="W81" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B82" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C82" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D82" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E82" t="s">
         <v>118</v>
       </c>
       <c r="F82" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -9513,7 +9789,7 @@
         <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L82" t="s">
         <v>65</v>
@@ -9525,7 +9801,7 @@
         <v>137</v>
       </c>
       <c r="O82" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P82" t="s">
         <v>51</v>
@@ -9534,10 +9810,10 @@
         <v>52</v>
       </c>
       <c r="R82" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="S82" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T82" t="s">
         <v>151</v>
@@ -9546,30 +9822,30 @@
         <v>30</v>
       </c>
       <c r="V82" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="W82" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B83" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C83" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E83" t="s">
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -9584,10 +9860,10 @@
         <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L83" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M83" t="s">
         <v>30</v>
@@ -9599,7 +9875,7 @@
         <v>242</v>
       </c>
       <c r="P83" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q83" t="s">
         <v>109</v>
@@ -9617,21 +9893,21 @@
         <v>30</v>
       </c>
       <c r="V83" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="W83" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D84" t="s">
         <v>181</v>
@@ -9640,7 +9916,7 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G84" t="s">
         <v>45</v>
@@ -9655,7 +9931,7 @@
         <v>30</v>
       </c>
       <c r="K84" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L84" t="s">
         <v>30</v>
@@ -9688,21 +9964,21 @@
         <v>30</v>
       </c>
       <c r="V84" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W84" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B85" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C85" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D85" t="s">
         <v>60</v>
@@ -9726,7 +10002,7 @@
         <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L85" t="s">
         <v>65</v>
@@ -9750,30 +10026,30 @@
         <v>126</v>
       </c>
       <c r="S85" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T85" t="s">
         <v>30</v>
       </c>
       <c r="U85" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="V85" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="W85" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B86" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C86" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D86" t="s">
         <v>60</v>
@@ -9797,7 +10073,7 @@
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L86" t="s">
         <v>30</v>
@@ -9812,39 +10088,39 @@
         <v>187</v>
       </c>
       <c r="P86" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q86" t="s">
         <v>52</v>
       </c>
       <c r="R86" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="S86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T86" t="s">
         <v>140</v>
       </c>
       <c r="U86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V86" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="W86" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B87" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C87" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D87" t="s">
         <v>181</v>
@@ -9868,7 +10144,7 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L87" t="s">
         <v>65</v>
@@ -9883,7 +10159,7 @@
         <v>242</v>
       </c>
       <c r="P87" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q87" t="s">
         <v>109</v>
@@ -9901,30 +10177,30 @@
         <v>30</v>
       </c>
       <c r="V87" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="W87" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B88" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C88" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D88" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E88" t="s">
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G88" t="s">
         <v>45</v>
@@ -9939,7 +10215,7 @@
         <v>30</v>
       </c>
       <c r="K88" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L88" t="s">
         <v>30</v>
@@ -9954,7 +10230,7 @@
         <v>197</v>
       </c>
       <c r="P88" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q88" t="s">
         <v>125</v>
@@ -9963,30 +10239,30 @@
         <v>174</v>
       </c>
       <c r="S88" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T88" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="U88" t="s">
         <v>30</v>
       </c>
       <c r="V88" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="W88" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B89" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C89" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D89" t="s">
         <v>117</v>
@@ -10010,7 +10286,7 @@
         <v>30</v>
       </c>
       <c r="K89" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L89" t="s">
         <v>65</v>
@@ -10040,33 +10316,33 @@
         <v>30</v>
       </c>
       <c r="U89" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V89" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="W89" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B90" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C90" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D90" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E90" t="s">
         <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G90" t="s">
         <v>45</v>
@@ -10081,7 +10357,7 @@
         <v>30</v>
       </c>
       <c r="K90" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L90" t="s">
         <v>65</v>
@@ -10111,24 +10387,24 @@
         <v>30</v>
       </c>
       <c r="U90" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="V90" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="W90" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B91" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C91" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D91" t="s">
         <v>230</v>
@@ -10137,7 +10413,7 @@
         <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -10152,10 +10428,10 @@
         <v>30</v>
       </c>
       <c r="K91" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L91" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M91" t="s">
         <v>233</v>
@@ -10176,7 +10452,7 @@
         <v>268</v>
       </c>
       <c r="S91" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="T91" t="s">
         <v>30</v>
@@ -10185,21 +10461,21 @@
         <v>30</v>
       </c>
       <c r="V91" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="W91" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B92" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C92" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D92" t="s">
         <v>230</v>
@@ -10208,7 +10484,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -10223,7 +10499,7 @@
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L92" t="s">
         <v>65</v>
@@ -10238,7 +10514,7 @@
         <v>50</v>
       </c>
       <c r="P92" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Q92" t="s">
         <v>109</v>
@@ -10256,21 +10532,21 @@
         <v>30</v>
       </c>
       <c r="V92" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="W92" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B93" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C93" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D93" t="s">
         <v>212</v>
@@ -10279,7 +10555,7 @@
         <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -10294,10 +10570,10 @@
         <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L93" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M93" t="s">
         <v>30</v>
@@ -10306,7 +10582,7 @@
         <v>30</v>
       </c>
       <c r="O93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P93" t="s">
         <v>51</v>
@@ -10315,7 +10591,7 @@
         <v>52</v>
       </c>
       <c r="R93" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="S93" t="s">
         <v>150</v>
@@ -10327,21 +10603,21 @@
         <v>30</v>
       </c>
       <c r="V93" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="W93" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B94" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C94" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D94" t="s">
         <v>146</v>
@@ -10350,7 +10626,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -10362,19 +10638,19 @@
         <v>120</v>
       </c>
       <c r="J94" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K94" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L94" t="s">
         <v>30</v>
       </c>
       <c r="M94" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N94" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O94" t="s">
         <v>187</v>
@@ -10386,10 +10662,10 @@
         <v>52</v>
       </c>
       <c r="R94" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="S94" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="T94" t="s">
         <v>30</v>
@@ -10398,21 +10674,21 @@
         <v>309</v>
       </c>
       <c r="V94" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="W94" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -10421,7 +10697,7 @@
         <v>118</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -10433,10 +10709,10 @@
         <v>30</v>
       </c>
       <c r="J95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K95" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L95" t="s">
         <v>65</v>
@@ -10469,30 +10745,30 @@
         <v>30</v>
       </c>
       <c r="V95" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="W95" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B96" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C96" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D96" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
       </c>
       <c r="F96" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -10501,16 +10777,16 @@
         <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J96" t="s">
         <v>30</v>
       </c>
       <c r="K96" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L96" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M96" t="s">
         <v>185</v>
@@ -10519,7 +10795,7 @@
         <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P96" t="s">
         <v>51</v>
@@ -10528,7 +10804,7 @@
         <v>52</v>
       </c>
       <c r="R96" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="S96" t="s">
         <v>30</v>
@@ -10540,30 +10816,30 @@
         <v>128</v>
       </c>
       <c r="V96" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="W96" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B97" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C97" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D97" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E97" t="s">
         <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G97" t="s">
         <v>62</v>
@@ -10599,10 +10875,10 @@
         <v>52</v>
       </c>
       <c r="R97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S97" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T97" t="s">
         <v>243</v>
@@ -10611,30 +10887,30 @@
         <v>30</v>
       </c>
       <c r="V97" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W97" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B98" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C98" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D98" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -10649,7 +10925,7 @@
         <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L98" t="s">
         <v>30</v>
@@ -10661,7 +10937,7 @@
         <v>30</v>
       </c>
       <c r="O98" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P98" t="s">
         <v>51</v>
@@ -10673,7 +10949,7 @@
         <v>126</v>
       </c>
       <c r="S98" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T98" t="s">
         <v>30</v>
@@ -10682,30 +10958,30 @@
         <v>30</v>
       </c>
       <c r="V98" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="W98" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B99" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C99" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D99" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E99" t="s">
         <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -10720,22 +10996,22 @@
         <v>30</v>
       </c>
       <c r="K99" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L99" t="s">
         <v>65</v>
       </c>
       <c r="M99" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N99" t="s">
         <v>137</v>
       </c>
       <c r="O99" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P99" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="Q99" t="s">
         <v>109</v>
@@ -10753,30 +11029,30 @@
         <v>152</v>
       </c>
       <c r="V99" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="W99" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B100" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C100" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D100" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E100" t="s">
         <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G100" t="s">
         <v>45</v>
@@ -10791,7 +11067,7 @@
         <v>30</v>
       </c>
       <c r="K100" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L100" t="s">
         <v>65</v>
@@ -10815,7 +11091,7 @@
         <v>80</v>
       </c>
       <c r="S100" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="T100" t="s">
         <v>279</v>
@@ -10824,21 +11100,21 @@
         <v>30</v>
       </c>
       <c r="V100" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="W100" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B101" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C101" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D101" t="s">
         <v>203</v>
@@ -10847,7 +11123,7 @@
         <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G101" t="s">
         <v>62</v>
@@ -10862,7 +11138,7 @@
         <v>30</v>
       </c>
       <c r="K101" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L101" t="s">
         <v>30</v>
@@ -10886,7 +11162,7 @@
         <v>298</v>
       </c>
       <c r="S101" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="T101" t="s">
         <v>140</v>
@@ -10895,24 +11171,24 @@
         <v>30</v>
       </c>
       <c r="V101" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="W101" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B102" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C102" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D102" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E102" t="s">
         <v>43</v>
@@ -10933,7 +11209,7 @@
         <v>30</v>
       </c>
       <c r="K102" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L102" t="s">
         <v>30</v>
@@ -10966,30 +11242,30 @@
         <v>30</v>
       </c>
       <c r="V102" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="W102" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B103" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C103" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D103" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E103" t="s">
         <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G103" t="s">
         <v>45</v>
@@ -11004,10 +11280,10 @@
         <v>30</v>
       </c>
       <c r="K103" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="L103" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M103" t="s">
         <v>30</v>
@@ -11025,10 +11301,10 @@
         <v>52</v>
       </c>
       <c r="R103" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="S103" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="T103" t="s">
         <v>243</v>
@@ -11037,30 +11313,30 @@
         <v>30</v>
       </c>
       <c r="V103" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="W103" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B104" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C104" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D104" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E104" t="s">
         <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -11075,7 +11351,7 @@
         <v>30</v>
       </c>
       <c r="K104" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L104" t="s">
         <v>65</v>
@@ -11087,19 +11363,19 @@
         <v>30</v>
       </c>
       <c r="O104" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P104" t="s">
         <v>30</v>
       </c>
       <c r="Q104" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R104" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S104" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T104" t="s">
         <v>243</v>
@@ -11108,30 +11384,30 @@
         <v>30</v>
       </c>
       <c r="V104" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="W104" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B105" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C105" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D105" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E105" t="s">
         <v>118</v>
       </c>
       <c r="F105" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -11146,7 +11422,7 @@
         <v>30</v>
       </c>
       <c r="K105" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L105" t="s">
         <v>30</v>
@@ -11167,7 +11443,7 @@
         <v>30</v>
       </c>
       <c r="R105" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S105" t="s">
         <v>30</v>
@@ -11179,21 +11455,21 @@
         <v>30</v>
       </c>
       <c r="V105" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="W105" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B106" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C106" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D106" t="s">
         <v>181</v>
@@ -11202,7 +11478,7 @@
         <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -11211,13 +11487,13 @@
         <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J106" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="K106" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="L106" t="s">
         <v>30</v>
@@ -11250,30 +11526,30 @@
         <v>30</v>
       </c>
       <c r="V106" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W106" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B107" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C107" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E107" t="s">
         <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -11288,7 +11564,7 @@
         <v>30</v>
       </c>
       <c r="K107" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L107" t="s">
         <v>65</v>
@@ -11303,13 +11579,13 @@
         <v>197</v>
       </c>
       <c r="P107" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="Q107" t="s">
         <v>109</v>
       </c>
       <c r="R107" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S107" t="s">
         <v>26</v>
@@ -11318,33 +11594,33 @@
         <v>30</v>
       </c>
       <c r="U107" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="V107" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="W107" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B108" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C108" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E108" t="s">
         <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -11356,19 +11632,19 @@
         <v>120</v>
       </c>
       <c r="J108" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K108" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L108" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M108" t="s">
         <v>66</v>
       </c>
       <c r="N108" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="O108" t="s">
         <v>187</v>
@@ -11380,10 +11656,10 @@
         <v>109</v>
       </c>
       <c r="R108" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T108" t="s">
         <v>30</v>
@@ -11392,21 +11668,21 @@
         <v>111</v>
       </c>
       <c r="V108" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="W108" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B109" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C109" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D109" t="s">
         <v>334</v>
@@ -11415,7 +11691,7 @@
         <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G109" t="s">
         <v>45</v>
@@ -11430,7 +11706,7 @@
         <v>30</v>
       </c>
       <c r="K109" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L109" t="s">
         <v>65</v>
@@ -11463,24 +11739,24 @@
         <v>111</v>
       </c>
       <c r="V109" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="W109" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B110" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C110" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D110" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E110" t="s">
         <v>43</v>
@@ -11501,7 +11777,7 @@
         <v>30</v>
       </c>
       <c r="K110" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L110" t="s">
         <v>65</v>
@@ -11513,7 +11789,7 @@
         <v>30</v>
       </c>
       <c r="O110" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P110" t="s">
         <v>39</v>
@@ -11525,7 +11801,7 @@
         <v>126</v>
       </c>
       <c r="S110" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="T110" t="s">
         <v>30</v>
@@ -11534,24 +11810,24 @@
         <v>30</v>
       </c>
       <c r="V110" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="W110" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B111" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C111" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D111" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E111" t="s">
         <v>43</v>
@@ -11572,19 +11848,19 @@
         <v>30</v>
       </c>
       <c r="K111" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L111" t="s">
         <v>30</v>
       </c>
       <c r="M111" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N111" t="s">
         <v>30</v>
       </c>
       <c r="O111" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P111" t="s">
         <v>51</v>
@@ -11596,39 +11872,39 @@
         <v>69</v>
       </c>
       <c r="S111" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="T111" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U111" t="s">
         <v>30</v>
       </c>
       <c r="V111" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="W111" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B112" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C112" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E112" t="s">
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G112" t="s">
         <v>45</v>
@@ -11643,7 +11919,7 @@
         <v>30</v>
       </c>
       <c r="K112" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L112" t="s">
         <v>65</v>
@@ -11655,7 +11931,7 @@
         <v>30</v>
       </c>
       <c r="O112" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P112" t="s">
         <v>51</v>
@@ -11667,7 +11943,7 @@
         <v>53</v>
       </c>
       <c r="S112" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="T112" t="s">
         <v>30</v>
@@ -11676,30 +11952,30 @@
         <v>128</v>
       </c>
       <c r="V112" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="W112" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B113" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C113" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E113" t="s">
         <v>118</v>
       </c>
       <c r="F113" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -11711,13 +11987,13 @@
         <v>30</v>
       </c>
       <c r="J113" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="K113" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L113" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M113" t="s">
         <v>30</v>
@@ -11738,7 +12014,7 @@
         <v>30</v>
       </c>
       <c r="S113" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T113" t="s">
         <v>30</v>
@@ -11747,24 +12023,24 @@
         <v>30</v>
       </c>
       <c r="V113" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="W113" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B114" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C114" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D114" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E114" t="s">
         <v>43</v>
@@ -11782,10 +12058,10 @@
         <v>222</v>
       </c>
       <c r="J114" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="K114" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L114" t="s">
         <v>30</v>
@@ -11800,39 +12076,39 @@
         <v>95</v>
       </c>
       <c r="P114" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="Q114" t="s">
         <v>109</v>
       </c>
       <c r="R114" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="S114" t="s">
         <v>334</v>
       </c>
       <c r="T114" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U114" t="s">
         <v>30</v>
       </c>
       <c r="V114" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="W114" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B115" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C115" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D115" t="s">
         <v>60</v>
@@ -11841,7 +12117,7 @@
         <v>118</v>
       </c>
       <c r="F115" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -11850,13 +12126,13 @@
         <v>29</v>
       </c>
       <c r="I115" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J115" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="K115" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L115" t="s">
         <v>30</v>
@@ -11889,21 +12165,21 @@
         <v>30</v>
       </c>
       <c r="V115" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="W115" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B116" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C116" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D116" t="s">
         <v>212</v>
@@ -11912,7 +12188,7 @@
         <v>118</v>
       </c>
       <c r="F116" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
@@ -11924,10 +12200,10 @@
         <v>30</v>
       </c>
       <c r="J116" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K116" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L116" t="s">
         <v>30</v>
@@ -11960,30 +12236,30 @@
         <v>30</v>
       </c>
       <c r="V116" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="W116" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B117" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C117" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D117" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E117" t="s">
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -11998,7 +12274,7 @@
         <v>30</v>
       </c>
       <c r="K117" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="L117" t="s">
         <v>65</v>
@@ -12013,7 +12289,7 @@
         <v>79</v>
       </c>
       <c r="P117" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q117" t="s">
         <v>109</v>
@@ -12022,7 +12298,7 @@
         <v>298</v>
       </c>
       <c r="S117" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T117" t="s">
         <v>71</v>
@@ -12031,30 +12307,30 @@
         <v>300</v>
       </c>
       <c r="V117" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="W117" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B118" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C118" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D118" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -12066,10 +12342,10 @@
         <v>30</v>
       </c>
       <c r="J118" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K118" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L118" t="s">
         <v>65</v>
@@ -12081,7 +12357,7 @@
         <v>30</v>
       </c>
       <c r="O118" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="P118" t="s">
         <v>30</v>
@@ -12090,42 +12366,42 @@
         <v>30</v>
       </c>
       <c r="R118" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="S118" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="T118" t="s">
-        <v>30</v>
+        <v>1075</v>
       </c>
       <c r="U118" t="s">
         <v>30</v>
       </c>
       <c r="V118" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="W118" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B119" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C119" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D119" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E119" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F119" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -12137,13 +12413,13 @@
         <v>120</v>
       </c>
       <c r="J119" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K119" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="L119" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M119" t="s">
         <v>233</v>
@@ -12161,10 +12437,10 @@
         <v>52</v>
       </c>
       <c r="R119" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="S119" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="T119" t="s">
         <v>30</v>
@@ -12173,30 +12449,30 @@
         <v>300</v>
       </c>
       <c r="V119" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="W119" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B120" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C120" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D120" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G120" t="s">
         <v>29</v>
@@ -12208,13 +12484,13 @@
         <v>120</v>
       </c>
       <c r="J120" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="K120" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="L120" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M120" t="s">
         <v>233</v>
@@ -12235,7 +12511,7 @@
         <v>53</v>
       </c>
       <c r="S120" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="T120" t="s">
         <v>30</v>
@@ -12244,30 +12520,30 @@
         <v>30</v>
       </c>
       <c r="V120" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="W120" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B121" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C121" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D121" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E121" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F121" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -12279,19 +12555,19 @@
         <v>120</v>
       </c>
       <c r="J121" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K121" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="L121" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M121" t="s">
         <v>233</v>
       </c>
       <c r="N121" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="O121" t="s">
         <v>187</v>
@@ -12303,10 +12579,10 @@
         <v>52</v>
       </c>
       <c r="R121" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S121" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="T121" t="s">
         <v>30</v>
@@ -12315,30 +12591,30 @@
         <v>152</v>
       </c>
       <c r="V121" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="W121" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B122" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C122" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D122" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E122" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F122" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -12350,16 +12626,16 @@
         <v>120</v>
       </c>
       <c r="J122" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="K122" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="L122" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M122" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="N122" t="s">
         <v>266</v>
@@ -12377,39 +12653,39 @@
         <v>126</v>
       </c>
       <c r="S122" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="T122" t="s">
         <v>30</v>
       </c>
       <c r="U122" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="V122" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="W122" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B123" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C123" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D123" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E123" t="s">
         <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -12421,13 +12697,13 @@
         <v>30</v>
       </c>
       <c r="J123" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K123" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="L123" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M123" t="s">
         <v>30</v>
@@ -12448,7 +12724,7 @@
         <v>53</v>
       </c>
       <c r="S123" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="T123" t="s">
         <v>30</v>
@@ -12457,30 +12733,30 @@
         <v>30</v>
       </c>
       <c r="V123" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="W123" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B124" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C124" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D124" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E124" t="s">
         <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -12492,22 +12768,22 @@
         <v>147</v>
       </c>
       <c r="J124" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K124" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="L124" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M124" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="N124" t="s">
         <v>30</v>
       </c>
       <c r="O124" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="P124" t="s">
         <v>51</v>
@@ -12519,7 +12795,7 @@
         <v>53</v>
       </c>
       <c r="S124" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="T124" t="s">
         <v>30</v>
@@ -12528,10 +12804,720 @@
         <v>152</v>
       </c>
       <c r="V124" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="W124" t="s">
-        <v>1128</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D125" t="s">
+        <v>652</v>
+      </c>
+      <c r="E125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G125" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s">
+        <v>46</v>
+      </c>
+      <c r="I125" t="s">
+        <v>222</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L125" t="s">
+        <v>253</v>
+      </c>
+      <c r="M125" t="s">
+        <v>66</v>
+      </c>
+      <c r="N125" t="s">
+        <v>30</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>52</v>
+      </c>
+      <c r="R125" t="s">
+        <v>53</v>
+      </c>
+      <c r="S125" t="s">
+        <v>1139</v>
+      </c>
+      <c r="T125" t="s">
+        <v>743</v>
+      </c>
+      <c r="U125" t="s">
+        <v>30</v>
+      </c>
+      <c r="V125" t="s">
+        <v>1140</v>
+      </c>
+      <c r="W125" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E126" t="s">
+        <v>619</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L126" t="s">
+        <v>253</v>
+      </c>
+      <c r="M126" t="s">
+        <v>30</v>
+      </c>
+      <c r="N126" t="s">
+        <v>30</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P126" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>52</v>
+      </c>
+      <c r="R126" t="s">
+        <v>759</v>
+      </c>
+      <c r="S126" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T126" t="s">
+        <v>1151</v>
+      </c>
+      <c r="U126" t="s">
+        <v>300</v>
+      </c>
+      <c r="V126" t="s">
+        <v>1152</v>
+      </c>
+      <c r="W126" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G127" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s">
+        <v>120</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L127" t="s">
+        <v>253</v>
+      </c>
+      <c r="M127" t="s">
+        <v>297</v>
+      </c>
+      <c r="N127" t="s">
+        <v>338</v>
+      </c>
+      <c r="O127" t="s">
+        <v>187</v>
+      </c>
+      <c r="P127" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>30</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1160</v>
+      </c>
+      <c r="S127" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T127" t="s">
+        <v>30</v>
+      </c>
+      <c r="U127" t="s">
+        <v>289</v>
+      </c>
+      <c r="V127" t="s">
+        <v>1162</v>
+      </c>
+      <c r="W127" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D128" t="s">
+        <v>652</v>
+      </c>
+      <c r="E128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s">
+        <v>587</v>
+      </c>
+      <c r="G128" t="s">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s">
+        <v>46</v>
+      </c>
+      <c r="I128" t="s">
+        <v>47</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L128" t="s">
+        <v>65</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N128" t="s">
+        <v>30</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P128" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>125</v>
+      </c>
+      <c r="R128" t="s">
+        <v>759</v>
+      </c>
+      <c r="S128" t="s">
+        <v>1170</v>
+      </c>
+      <c r="T128" t="s">
+        <v>151</v>
+      </c>
+      <c r="U128" t="s">
+        <v>30</v>
+      </c>
+      <c r="V128" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W128" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D129" t="s">
+        <v>652</v>
+      </c>
+      <c r="E129" t="s">
+        <v>619</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129" t="s">
+        <v>120</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L129" t="s">
+        <v>30</v>
+      </c>
+      <c r="M129" t="s">
+        <v>123</v>
+      </c>
+      <c r="N129" t="s">
+        <v>266</v>
+      </c>
+      <c r="O129" t="s">
+        <v>187</v>
+      </c>
+      <c r="P129" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>30</v>
+      </c>
+      <c r="R129" t="s">
+        <v>30</v>
+      </c>
+      <c r="S129" t="s">
+        <v>30</v>
+      </c>
+      <c r="T129" t="s">
+        <v>30</v>
+      </c>
+      <c r="U129" t="s">
+        <v>30</v>
+      </c>
+      <c r="V129" t="s">
+        <v>1179</v>
+      </c>
+      <c r="W129" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D130" t="s">
+        <v>652</v>
+      </c>
+      <c r="E130" t="s">
+        <v>619</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" t="s">
+        <v>120</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L130" t="s">
+        <v>30</v>
+      </c>
+      <c r="M130" t="s">
+        <v>233</v>
+      </c>
+      <c r="N130" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130" t="s">
+        <v>95</v>
+      </c>
+      <c r="P130" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>30</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S130" t="s">
+        <v>1184</v>
+      </c>
+      <c r="T130" t="s">
+        <v>30</v>
+      </c>
+      <c r="U130" t="s">
+        <v>30</v>
+      </c>
+      <c r="V130" t="s">
+        <v>1185</v>
+      </c>
+      <c r="W130" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B131" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D131" t="s">
+        <v>652</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" t="s">
+        <v>63</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M131" t="s">
+        <v>233</v>
+      </c>
+      <c r="N131" t="s">
+        <v>30</v>
+      </c>
+      <c r="O131" t="s">
+        <v>95</v>
+      </c>
+      <c r="P131" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>52</v>
+      </c>
+      <c r="R131" t="s">
+        <v>53</v>
+      </c>
+      <c r="S131" t="s">
+        <v>1193</v>
+      </c>
+      <c r="T131" t="s">
+        <v>30</v>
+      </c>
+      <c r="U131" t="s">
+        <v>30</v>
+      </c>
+      <c r="V131" t="s">
+        <v>1194</v>
+      </c>
+      <c r="W131" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D132" t="s">
+        <v>652</v>
+      </c>
+      <c r="E132" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G132" t="s">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" t="s">
+        <v>30</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L132" t="s">
+        <v>623</v>
+      </c>
+      <c r="M132" t="s">
+        <v>30</v>
+      </c>
+      <c r="N132" t="s">
+        <v>30</v>
+      </c>
+      <c r="O132" t="s">
+        <v>79</v>
+      </c>
+      <c r="P132" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>52</v>
+      </c>
+      <c r="R132" t="s">
+        <v>1202</v>
+      </c>
+      <c r="S132" t="s">
+        <v>618</v>
+      </c>
+      <c r="T132" t="s">
+        <v>626</v>
+      </c>
+      <c r="U132" t="s">
+        <v>30</v>
+      </c>
+      <c r="V132" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W132" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D133" t="s">
+        <v>652</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s">
+        <v>147</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L133" t="s">
+        <v>65</v>
+      </c>
+      <c r="M133" t="s">
+        <v>66</v>
+      </c>
+      <c r="N133" t="s">
+        <v>30</v>
+      </c>
+      <c r="O133" t="s">
+        <v>95</v>
+      </c>
+      <c r="P133" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>52</v>
+      </c>
+      <c r="R133" t="s">
+        <v>53</v>
+      </c>
+      <c r="S133" t="s">
+        <v>1210</v>
+      </c>
+      <c r="T133" t="s">
+        <v>30</v>
+      </c>
+      <c r="U133" t="s">
+        <v>30</v>
+      </c>
+      <c r="V133" t="s">
+        <v>1211</v>
+      </c>
+      <c r="W133" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E134" t="s">
+        <v>619</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s">
+        <v>120</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L134" t="s">
+        <v>65</v>
+      </c>
+      <c r="M134" t="s">
+        <v>233</v>
+      </c>
+      <c r="N134" t="s">
+        <v>266</v>
+      </c>
+      <c r="O134" t="s">
+        <v>647</v>
+      </c>
+      <c r="P134" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>52</v>
+      </c>
+      <c r="R134" t="s">
+        <v>126</v>
+      </c>
+      <c r="S134" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T134" t="s">
+        <v>30</v>
+      </c>
+      <c r="U134" t="s">
+        <v>152</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1219</v>
+      </c>
+      <c r="W134" t="s">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
